--- a/medicine/Enfance/Maxime_Roussy/Maxime_Roussy.xlsx
+++ b/medicine/Enfance/Maxime_Roussy/Maxime_Roussy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maxime Roussy est un écrivain québécois né à Montréal le 16 janvier 1976. Il est auteur de littérature pour adultes ainsi que pour adolescents.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est père de quatre enfants, quatre filles.
 Son premier titre, Du sang sur la chair d’une pomme, qui lui a valu le prix de l'Académie, s’est vendu à 10 000 exemplaires en Russie.
@@ -546,14 +560,16 @@
           <t>Accusations criminelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 27 avril 2011, il est accusé d'actes pédophiles, d'attouchements sexuels et actes sexuels, sur une jeune fille âgée de douze ans, de 2006 à 2010[1]. 
-En décembre 2013, il est détenu une semaine pour bris de condition pour avoir contacté la victime alléguée. Il retrouve sa liberté moyennant une caution[2].
-Avant les accusations portées contre lui, il a été pendant trois ans le porte-parole pour le volet jeunesse de l'organisme Phobies-zéro qui vient en aide aux jeunes qui souffrent de troubles d'anxiété[3].
-Le 6 décembre 2016, Maxime Roussy a été déclaré coupable d'agression sexuelle armée, de leurre, de possession et de production de pornographie juvénile, de contacts sexuels, d'incitation à des contacts sexuels et de bris de conditions envers une adolescente qui était aussi une admiratrice[4],[5],[6]. Il a été incarcéré dès le prononcé du verdict de culpabilité.  
-Le 3 mars 2017, lors de la décision sur sentence, il a écopé d'une peine de cinq ans de pénitencier. Tous ses livres ont aussi été retirés de la circulation[7],[8]. 
-Le 3 mai 2018, Maxime Roussy a fait une demande de libération conditionnelle, qui lui a été refusée. En audience, il a admis, pour la première fois, avoir effectivement commis tous les crimes lui étant reprochés. Il a notamment avoué aux commissaires de la Commission des libérations conditionnelles du Canada avoir mené « une vie de délinquant sexuel qui commettait des crimes affreux sur une adolescente »[9]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 27 avril 2011, il est accusé d'actes pédophiles, d'attouchements sexuels et actes sexuels, sur une jeune fille âgée de douze ans, de 2006 à 2010. 
+En décembre 2013, il est détenu une semaine pour bris de condition pour avoir contacté la victime alléguée. Il retrouve sa liberté moyennant une caution.
+Avant les accusations portées contre lui, il a été pendant trois ans le porte-parole pour le volet jeunesse de l'organisme Phobies-zéro qui vient en aide aux jeunes qui souffrent de troubles d'anxiété.
+Le 6 décembre 2016, Maxime Roussy a été déclaré coupable d'agression sexuelle armée, de leurre, de possession et de production de pornographie juvénile, de contacts sexuels, d'incitation à des contacts sexuels et de bris de conditions envers une adolescente qui était aussi une admiratrice. Il a été incarcéré dès le prononcé du verdict de culpabilité.  
+Le 3 mars 2017, lors de la décision sur sentence, il a écopé d'une peine de cinq ans de pénitencier. Tous ses livres ont aussi été retirés de la circulation,. 
+Le 3 mai 2018, Maxime Roussy a fait une demande de libération conditionnelle, qui lui a été refusée. En audience, il a admis, pour la première fois, avoir effectivement commis tous les crimes lui étant reprochés. Il a notamment avoué aux commissaires de la Commission des libérations conditionnelles du Canada avoir mené « une vie de délinquant sexuel qui commettait des crimes affreux sur une adolescente ». 
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2000 : Prix de l'Académie, Du sang sur la chair d’une pomme ;
 2008 : Finaliste du Prix Jeunesse des Univers Parallèles pour le premier tome[Titre ?]</t>
